--- a/FashionShop/src/main/webapp/resources/excel/product_dump.xlsx
+++ b/FashionShop/src/main/webapp/resources/excel/product_dump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0C4D4-A4C3-4884-B113-9A7F7C8D251F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B97D72-D433-40C8-B6D0-8D796A829F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>subcategory_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제품 좋네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시원해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>따뜻해요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +137,66 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,blue,yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange,blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green,purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue,navy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink,blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,XXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS,S,M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,20 +221,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -191,8 +270,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,170 +600,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>50000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>50001</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>50002</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50004</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>50003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50005</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>50004</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50006</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>50005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>50006</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>50007</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/FashionShop/src/main/webapp/resources/excel/product_dump.xlsx
+++ b/FashionShop/src/main/webapp/resources/excel/product_dump.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B97D72-D433-40C8-B6D0-8D796A829F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEB553-CAA6-4222-B8C6-E4957CF1818F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>subcategory_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,7 +196,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp</t>
+    <t>tshirt.jpg</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -264,13 +267,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +298,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +633,7 @@
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -665,10 +682,11 @@
         <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -684,13 +702,17 @@
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -706,13 +728,17 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -738,7 +764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -764,7 +790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -790,7 +816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -816,7 +842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
